--- a/lib/Library_architecture.xlsx
+++ b/lib/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/GitHub Repo/Drivers/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD3B1645-16DB-43A5-B195-99BB4682CE92}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5438312C-196B-4941-8154-3A78F2D85BD9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Math_lite" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1004,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C825-DFC6-41CA-B3F9-ED558CE8D329}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,11 +1178,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>87</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D80" t="s">
         <v>88</v>
       </c>
     </row>

--- a/lib/Library_architecture.xlsx
+++ b/lib/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/GitHub Repo/Drivers/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="391" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5438312C-196B-4941-8154-3A78F2D85BD9}"/>
+  <xr:revisionPtr revIDLastSave="504" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD339439-FCEB-4758-9A5F-E44EE19AACF3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Constants</t>
   </si>
@@ -288,9 +288,6 @@
     <t>Transform</t>
   </si>
   <si>
-    <t>Transform.h, .tpp</t>
-  </si>
-  <si>
     <t>Numericals</t>
   </si>
   <si>
@@ -325,6 +322,216 @@
   </si>
   <si>
     <t>QRD.h, .tpp</t>
+  </si>
+  <si>
+    <t>Transform.h</t>
+  </si>
+  <si>
+    <t>Transform2D</t>
+  </si>
+  <si>
+    <t>Transform3D</t>
+  </si>
+  <si>
+    <t>Translate2D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Transform2D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Rotation2D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Transform_affine2D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Transform_homo2D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Transform3D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Translate3D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Rotation3D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Transform_affine3D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Transform_homo3D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Probability.h, .tpp</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Statistics.h, .tpp</t>
+  </si>
+  <si>
+    <t>Calculus</t>
+  </si>
+  <si>
+    <t>Calculus.h, .tpp</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Geometry.h</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Line.h</t>
+  </si>
+  <si>
+    <t>Line2D.h, tpp</t>
+  </si>
+  <si>
+    <t>Line3D.h, tpp</t>
+  </si>
+  <si>
+    <t>LineND.h, tpp</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Point.h</t>
+  </si>
+  <si>
+    <t>Point1D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Point2D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Point3D.h, .tpp</t>
+  </si>
+  <si>
+    <t>PointND.h, .tpp</t>
+  </si>
+  <si>
+    <t>Ray.h</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Ray2D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Ray3D.h, .tpp</t>
+  </si>
+  <si>
+    <t>RayND.h, .tpp</t>
+  </si>
+  <si>
+    <t>Foundation.h</t>
+  </si>
+  <si>
+    <t>Conics</t>
+  </si>
+  <si>
+    <t>Conics.h</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Circle.h, .tpp</t>
+  </si>
+  <si>
+    <t>Ellipse</t>
+  </si>
+  <si>
+    <t>Ellipse.h, .tpp</t>
+  </si>
+  <si>
+    <t>Parabola</t>
+  </si>
+  <si>
+    <t>Parabola.h, .tpp</t>
+  </si>
+  <si>
+    <t>Hyperbola</t>
+  </si>
+  <si>
+    <t>Hyperbola.h, .tpp</t>
+  </si>
+  <si>
+    <t>Surfaces</t>
+  </si>
+  <si>
+    <t>Surfaces.h</t>
+  </si>
+  <si>
+    <t>Cylinder</t>
+  </si>
+  <si>
+    <t>Cylinder.h, .tpp</t>
+  </si>
+  <si>
+    <t>Plane</t>
+  </si>
+  <si>
+    <t>Plane.h, .tpp</t>
+  </si>
+  <si>
+    <t>Sphere</t>
+  </si>
+  <si>
+    <t>Ellipsoid</t>
+  </si>
+  <si>
+    <t>Paraboloid</t>
+  </si>
+  <si>
+    <t>Hyperboloid</t>
+  </si>
+  <si>
+    <t>Trapezoid</t>
+  </si>
+  <si>
+    <t>Shapes</t>
+  </si>
+  <si>
+    <t>Triangle.h</t>
+  </si>
+  <si>
+    <t>Quadrilateral.h</t>
+  </si>
+  <si>
+    <t>Square.h</t>
+  </si>
+  <si>
+    <t>Rectangle.h</t>
+  </si>
+  <si>
+    <t>Pentagon.h</t>
+  </si>
+  <si>
+    <t>Hexagon.h</t>
+  </si>
+  <si>
+    <t>Septagon.h</t>
+  </si>
+  <si>
+    <t>Octagon.h</t>
+  </si>
+  <si>
+    <t>Polygon.h</t>
   </si>
 </sst>
 </file>
@@ -1003,17 +1210,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C825-DFC6-41CA-B3F9-ED558CE8D329}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,7 +1242,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D3" t="s">
@@ -1061,7 +1270,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D8" t="s">
@@ -1094,7 +1303,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D14" t="s">
@@ -1102,7 +1311,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D15" t="s">
@@ -1110,83 +1319,437 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
+      <c r="D38" t="s">
         <v>87</v>
       </c>
-      <c r="D80" t="s">
-        <v>88</v>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+      <c r="E46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+      <c r="E48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+      <c r="E50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+      <c r="E51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+      <c r="E52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+      <c r="E54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+      <c r="E55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+      <c r="E56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="C27:C37"/>
+    <mergeCell ref="D44:D48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lib/Library_architecture.xlsx
+++ b/lib/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/GitHub Repo/Drivers/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="504" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD339439-FCEB-4758-9A5F-E44EE19AACF3}"/>
+  <xr:revisionPtr revIDLastSave="540" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7141AE-8DF0-435A-8A1C-5EA8CAA3E56E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Constants</t>
   </si>
@@ -507,31 +507,76 @@
     <t>Shapes</t>
   </si>
   <si>
-    <t>Triangle.h</t>
-  </si>
-  <si>
-    <t>Quadrilateral.h</t>
-  </si>
-  <si>
-    <t>Square.h</t>
-  </si>
-  <si>
-    <t>Rectangle.h</t>
-  </si>
-  <si>
-    <t>Pentagon.h</t>
-  </si>
-  <si>
-    <t>Hexagon.h</t>
-  </si>
-  <si>
-    <t>Septagon.h</t>
-  </si>
-  <si>
-    <t>Octagon.h</t>
-  </si>
-  <si>
-    <t>Polygon.h</t>
+    <t>Sphere.h, .tpp</t>
+  </si>
+  <si>
+    <t>Ellipsoid.h, .tpp</t>
+  </si>
+  <si>
+    <t>Paraboloid.h, .tpp</t>
+  </si>
+  <si>
+    <t>Hyperboloid.h, .tpp</t>
+  </si>
+  <si>
+    <t>Trapezoid.h, .tpp</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Quadrilateral</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Rectangle</t>
+  </si>
+  <si>
+    <t>Pentagon</t>
+  </si>
+  <si>
+    <t>Hexagon</t>
+  </si>
+  <si>
+    <t>Septagon</t>
+  </si>
+  <si>
+    <t>Octagon</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>Triangle.h, .tpp</t>
+  </si>
+  <si>
+    <t>Quadrilateral.h, .tpp</t>
+  </si>
+  <si>
+    <t>Square.h, .tpp</t>
+  </si>
+  <si>
+    <t>Rectangle.h, .tpp</t>
+  </si>
+  <si>
+    <t>Pentagon.h, .tpp</t>
+  </si>
+  <si>
+    <t>Hexagon.h, .tpp</t>
+  </si>
+  <si>
+    <t>Septagon.h, .tpp</t>
+  </si>
+  <si>
+    <t>Octagon.h, .tpp</t>
+  </si>
+  <si>
+    <t>Polygon.h, .tpp</t>
+  </si>
+  <si>
+    <t>Shapes.h</t>
   </si>
 </sst>
 </file>
@@ -575,12 +620,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,17 +1256,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C825-DFC6-41CA-B3F9-ED558CE8D329}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1234,7 +1280,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
@@ -1242,6 +1288,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1250,26 +1297,31 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
       <c r="D4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
       <c r="D5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
       <c r="D6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
       <c r="D7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>70</v>
       </c>
@@ -1278,31 +1330,37 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
       <c r="D9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
       <c r="D10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
       <c r="D11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
       <c r="D12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
       <c r="D13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>77</v>
       </c>
@@ -1311,6 +1369,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>79</v>
       </c>
@@ -1319,6 +1378,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>81</v>
       </c>
@@ -1326,7 +1386,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>84</v>
       </c>
@@ -1334,61 +1395,71 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>85</v>
       </c>
@@ -1396,7 +1467,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>99</v>
@@ -1405,28 +1477,32 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
@@ -1434,6 +1510,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
         <v>100</v>
@@ -1443,6 +1520,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
@@ -1450,6 +1528,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
@@ -1457,6 +1536,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
@@ -1464,6 +1544,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
@@ -1471,10 +1552,10 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1503,7 +1584,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C42" t="s">
@@ -1511,7 +1592,8 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D43" t="s">
@@ -1519,6 +1601,8 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
         <v>125</v>
       </c>
@@ -1527,30 +1611,40 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
         <v>120</v>
       </c>
@@ -1558,25 +1652,33 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
         <v>132</v>
       </c>
@@ -1584,163 +1686,265 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D57" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E58" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E60" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E61" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D62" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E63" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E64" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
+      <c r="E65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
+      <c r="E66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
+      <c r="E67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
+      <c r="E68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+      <c r="E69" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D70" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
+      <c r="D70" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
+      <c r="E71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
+      <c r="E72" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
+      <c r="E73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="E74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="C70:C79"/>
+    <mergeCell ref="C43:C56"/>
+    <mergeCell ref="B2:B37"/>
+    <mergeCell ref="B42:B79"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C69"/>
     <mergeCell ref="D49:D52"/>
     <mergeCell ref="D53:D56"/>
     <mergeCell ref="D28:D32"/>

--- a/lib/Library_architecture.xlsx
+++ b/lib/Library_architecture.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="540" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7141AE-8DF0-435A-8A1C-5EA8CAA3E56E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -620,13 +620,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,7 +971,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C825-DFC6-41CA-B3F9-ED558CE8D329}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,7 +1842,7 @@
       <c r="C70" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1939,12 +1938,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C70:C79"/>
-    <mergeCell ref="C43:C56"/>
-    <mergeCell ref="B2:B37"/>
-    <mergeCell ref="B42:B79"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C69"/>
     <mergeCell ref="D49:D52"/>
     <mergeCell ref="D53:D56"/>
     <mergeCell ref="D28:D32"/>
@@ -1952,6 +1945,12 @@
     <mergeCell ref="C17:C26"/>
     <mergeCell ref="C27:C37"/>
     <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C70:C79"/>
+    <mergeCell ref="C43:C56"/>
+    <mergeCell ref="B2:B37"/>
+    <mergeCell ref="B42:B79"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/lib/Library_architecture.xlsx
+++ b/lib/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/GitHub Repo/Drivers/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="540" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7141AE-8DF0-435A-8A1C-5EA8CAA3E56E}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99F3E730-EAB8-4CFE-A778-0826747FB47D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Constants</t>
   </si>
@@ -450,27 +450,15 @@
     <t>Circle</t>
   </si>
   <si>
-    <t>Circle.h, .tpp</t>
-  </si>
-  <si>
     <t>Ellipse</t>
   </si>
   <si>
-    <t>Ellipse.h, .tpp</t>
-  </si>
-  <si>
     <t>Parabola</t>
   </si>
   <si>
-    <t>Parabola.h, .tpp</t>
-  </si>
-  <si>
     <t>Hyperbola</t>
   </si>
   <si>
-    <t>Hyperbola.h, .tpp</t>
-  </si>
-  <si>
     <t>Surfaces</t>
   </si>
   <si>
@@ -577,6 +565,48 @@
   </si>
   <si>
     <t>Shapes.h</t>
+  </si>
+  <si>
+    <t>Circle2D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Circle3D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Ellipse2D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Ellipse3D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Parabola2D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Parabola3D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Hyperbola2D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Hyperbola3D.h, .tpp</t>
+  </si>
+  <si>
+    <t>Parallelogram</t>
+  </si>
+  <si>
+    <t>Rhombous</t>
+  </si>
+  <si>
+    <t>Trapezium</t>
+  </si>
+  <si>
+    <t>Parallelogram.h, .tpp</t>
+  </si>
+  <si>
+    <t>Rhombous.h, .tpp</t>
+  </si>
+  <si>
+    <t>Trapezium.h, .tpp</t>
   </si>
 </sst>
 </file>
@@ -620,12 +650,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,7 +954,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -928,31 +962,31 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -982,7 +1016,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
@@ -990,7 +1024,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
@@ -999,7 +1033,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1008,7 +1042,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1017,7 +1051,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1026,7 +1060,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1035,7 +1069,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1044,7 +1078,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1053,7 +1087,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1062,7 +1096,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1071,7 +1105,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1080,7 +1114,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1089,7 +1123,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1121,7 +1155,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
@@ -1129,7 +1163,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1138,7 +1172,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1147,7 +1181,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1156,7 +1190,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1165,7 +1199,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
@@ -1174,7 +1208,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1183,7 +1217,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1192,7 +1226,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1201,7 +1235,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1210,7 +1244,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1219,7 +1253,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1228,7 +1262,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1237,7 +1271,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1255,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C825-DFC6-41CA-B3F9-ED558CE8D329}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1313,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
@@ -1287,7 +1321,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1296,31 +1330,31 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="D4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="D5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="D6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="D7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>70</v>
       </c>
@@ -1329,37 +1363,37 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="D9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="D10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="D11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="D12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="D13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>77</v>
       </c>
@@ -1368,7 +1402,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>79</v>
       </c>
@@ -1377,7 +1411,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>81</v>
       </c>
@@ -1386,8 +1420,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D17" t="s">
@@ -1395,71 +1429,71 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
       <c r="D21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
       <c r="D25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
       <c r="D26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D27" t="s">
@@ -1467,9 +1501,9 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E28" t="s">
@@ -1477,41 +1511,41 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E33" t="s">
@@ -1519,33 +1553,33 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="E37" t="s">
         <v>110</v>
       </c>
@@ -1583,7 +1617,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C42" t="s">
@@ -1591,8 +1625,8 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D43" t="s">
@@ -1600,9 +1634,9 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E44" t="s">
@@ -1610,41 +1644,41 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
       <c r="E46" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
       <c r="E47" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
       <c r="E48" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E49" t="s">
@@ -1652,33 +1686,33 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
       <c r="E50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
       <c r="E51" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
       <c r="E52" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E53" t="s">
@@ -1686,32 +1720,32 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
       <c r="E54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
       <c r="E55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
       <c r="E56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D57" t="s">
@@ -1719,225 +1753,297 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="1" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="1" t="s">
+      <c r="E60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="1" t="s">
+      <c r="E64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E60" t="s">
+      <c r="D66" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="1" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E68" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="1" t="s">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="1" t="s">
+      <c r="E72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E73" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="1" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E66" t="s">
+      <c r="D74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="E75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="E76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="E77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="1" t="s">
+      <c r="E81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E82" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="1" t="s">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E83" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="1" t="s">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E84" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="1" t="s">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E85" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="1" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E86" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E78" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E79" t="s">
-        <v>181</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C74:C86"/>
+    <mergeCell ref="C43:C56"/>
+    <mergeCell ref="B2:B37"/>
+    <mergeCell ref="B42:B86"/>
+    <mergeCell ref="C66:C73"/>
+    <mergeCell ref="C57:C65"/>
     <mergeCell ref="D49:D52"/>
     <mergeCell ref="D53:D56"/>
     <mergeCell ref="D28:D32"/>
@@ -1945,12 +2051,6 @@
     <mergeCell ref="C17:C26"/>
     <mergeCell ref="C27:C37"/>
     <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C70:C79"/>
-    <mergeCell ref="C43:C56"/>
-    <mergeCell ref="B2:B37"/>
-    <mergeCell ref="B42:B79"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/lib/Library_architecture.xlsx
+++ b/lib/Library_architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/GitHub Repo/Drivers/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99F3E730-EAB8-4CFE-A778-0826747FB47D}"/>
+  <xr:revisionPtr revIDLastSave="612" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49DDD549-360C-41C9-9E39-0B30EC25932B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Constants</t>
   </si>
@@ -607,6 +607,18 @@
   </si>
   <si>
     <t>Trapezium.h, .tpp</t>
+  </si>
+  <si>
+    <t>Circle.h</t>
+  </si>
+  <si>
+    <t>Ellipse.h</t>
+  </si>
+  <si>
+    <t>Parabola.h</t>
+  </si>
+  <si>
+    <t>Hyperbola.h</t>
   </si>
 </sst>
 </file>
@@ -650,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -659,7 +671,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C825-DFC6-41CA-B3F9-ED558CE8D329}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1770,7 @@
         <v>139</v>
       </c>
       <c r="E58" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -1767,35 +1778,33 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="D60" s="3"/>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="E61" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="D62" s="3"/>
       <c r="E62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -1803,17 +1812,17 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
@@ -1821,229 +1830,257 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
-      <c r="C66" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D66" t="s">
-        <v>144</v>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="2" t="s">
-        <v>147</v>
+      <c r="D67" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="D68" s="3"/>
       <c r="E68" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="D69" s="3"/>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E70" t="s">
-        <v>156</v>
+      <c r="C70" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="1" t="s">
-        <v>151</v>
+      <c r="D71" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E71" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
-      <c r="C74" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D74" t="s">
-        <v>178</v>
+      <c r="C74" s="3"/>
+      <c r="D74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E76" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E77" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>190</v>
+      <c r="C78" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>191</v>
+        <v>160</v>
+      </c>
+      <c r="E79" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>192</v>
+        <v>161</v>
+      </c>
+      <c r="E80" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="1" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="E82" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="1" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="E83" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="1" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="E84" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E90" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C74:C86"/>
-    <mergeCell ref="C43:C56"/>
-    <mergeCell ref="B2:B37"/>
-    <mergeCell ref="B42:B86"/>
-    <mergeCell ref="C66:C73"/>
-    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="D67:D69"/>
     <mergeCell ref="D49:D52"/>
     <mergeCell ref="D53:D56"/>
     <mergeCell ref="D28:D32"/>
@@ -2051,6 +2088,12 @@
     <mergeCell ref="C17:C26"/>
     <mergeCell ref="C27:C37"/>
     <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C43:C56"/>
+    <mergeCell ref="B2:B37"/>
+    <mergeCell ref="B42:B90"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="C57:C69"/>
+    <mergeCell ref="C78:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/lib/Library_architecture.xlsx
+++ b/lib/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/GitHub Repo/Drivers/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="612" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49DDD549-360C-41C9-9E39-0B30EC25932B}"/>
+  <xr:revisionPtr revIDLastSave="618" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3341A59F-5E2A-4F56-80F6-1ED467967BF9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C825-DFC6-41CA-B3F9-ED558CE8D329}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,50 +1979,50 @@
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="1" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E81" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E83" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="1" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="E85" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
@@ -2077,23 +2077,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:B37"/>
+    <mergeCell ref="B42:B90"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="C57:C69"/>
+    <mergeCell ref="C78:C90"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="C27:C37"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C43:C56"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="D61:D63"/>
     <mergeCell ref="D64:D66"/>
     <mergeCell ref="D67:D69"/>
     <mergeCell ref="D49:D52"/>
     <mergeCell ref="D53:D56"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="C27:C37"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C43:C56"/>
-    <mergeCell ref="B2:B37"/>
-    <mergeCell ref="B42:B90"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="C57:C69"/>
-    <mergeCell ref="C78:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/lib/Library_architecture.xlsx
+++ b/lib/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/GitHub Repo/Drivers/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="618" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3341A59F-5E2A-4F56-80F6-1ED467967BF9}"/>
+  <xr:revisionPtr revIDLastSave="624" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D2BEE8D-9027-40D2-8CAC-B4CA5C0D7132}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Constants</t>
   </si>
@@ -619,6 +619,18 @@
   </si>
   <si>
     <t>Hyperbola.h</t>
+  </si>
+  <si>
+    <t>Curves</t>
+  </si>
+  <si>
+    <t>Curves.h</t>
+  </si>
+  <si>
+    <t>Spline</t>
+  </si>
+  <si>
+    <t>Spline.h, .tpp</t>
   </si>
 </sst>
 </file>
@@ -662,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -671,6 +683,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1300,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C825-DFC6-41CA-B3F9-ED558CE8D329}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,25 +2088,41 @@
         <v>177</v>
       </c>
     </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D92" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:B37"/>
-    <mergeCell ref="B42:B90"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="C57:C69"/>
-    <mergeCell ref="C78:C90"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D53:D56"/>
     <mergeCell ref="D28:D32"/>
     <mergeCell ref="D33:D37"/>
     <mergeCell ref="C17:C26"/>
     <mergeCell ref="C27:C37"/>
     <mergeCell ref="D44:D48"/>
     <mergeCell ref="C43:C56"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="B2:B37"/>
+    <mergeCell ref="B42:B90"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="C57:C69"/>
+    <mergeCell ref="C78:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/lib/Library_architecture.xlsx
+++ b/lib/Library_architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/GitHub Repo/Drivers/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="624" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D2BEE8D-9027-40D2-8CAC-B4CA5C0D7132}"/>
+  <xr:revisionPtr revIDLastSave="653" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2705C6C-9C5D-4A85-AA8A-4AE18C0164B8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,13 +653,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -671,10 +695,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -683,9 +709,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -964,10 +993,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,37 +1013,37 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1026,10 +1058,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6F462F-433A-4DC7-9D0A-8AF53776DFC4}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,109 +1084,109 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1165,10 +1200,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D846928-50CD-4469-ACFD-390305BB92FE}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,124 +1220,124 @@
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1313,15 +1351,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C825-DFC6-41CA-B3F9-ED558CE8D329}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
@@ -1329,7 +1370,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B1" t="s">
@@ -1337,6 +1378,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>63</v>
       </c>
@@ -1345,6 +1387,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>64</v>
@@ -1354,30 +1397,35 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="D5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="D6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="D7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>70</v>
@@ -1387,36 +1435,42 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="D9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="D10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="D11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="D12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="D13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>77</v>
@@ -1426,6 +1480,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>79</v>
@@ -1435,6 +1490,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>81</v>
@@ -1443,7 +1499,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>84</v>
@@ -1452,70 +1509,80 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>85</v>
@@ -1524,7 +1591,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
@@ -1534,7 +1602,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1542,7 +1611,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1550,7 +1620,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1558,7 +1629,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1566,7 +1638,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
@@ -1576,7 +1649,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1584,7 +1658,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1592,7 +1667,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1600,7 +1676,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1608,7 +1685,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
       <c r="B38" s="1" t="s">
         <v>86</v>
       </c>
@@ -1616,7 +1694,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
       <c r="B39" s="1" t="s">
         <v>111</v>
       </c>
@@ -1624,7 +1703,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
       <c r="B40" s="1" t="s">
         <v>113</v>
       </c>
@@ -1632,7 +1712,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
       <c r="B41" s="1" t="s">
         <v>115</v>
       </c>
@@ -1640,7 +1721,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>117</v>
       </c>
@@ -1648,7 +1730,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
         <v>119</v>
@@ -1657,7 +1740,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
@@ -1667,7 +1751,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1675,7 +1760,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1683,7 +1769,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1691,7 +1778,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1699,7 +1787,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
@@ -1709,7 +1798,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1717,7 +1807,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1725,7 +1816,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1733,7 +1825,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
@@ -1743,7 +1836,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1751,7 +1845,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1759,7 +1854,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1767,7 +1863,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
         <v>137</v>
@@ -1776,7 +1873,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
@@ -1786,7 +1884,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1794,7 +1893,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1802,7 +1902,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
@@ -1812,7 +1913,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1820,7 +1922,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -1828,7 +1931,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
@@ -1838,7 +1942,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1846,7 +1951,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -1854,7 +1960,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
@@ -1864,7 +1971,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -1872,7 +1980,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -1880,7 +1989,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
         <v>143</v>
@@ -1889,7 +1999,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="2" t="s">
@@ -1899,7 +2010,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="1" t="s">
@@ -1909,7 +2021,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="1" t="s">
@@ -1919,7 +2032,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="1" t="s">
@@ -1929,7 +2043,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="1" t="s">
@@ -1939,7 +2054,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="1" t="s">
@@ -1949,7 +2065,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="1" t="s">
@@ -1959,7 +2076,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
         <v>154</v>
@@ -1968,7 +2086,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="1" t="s">
@@ -1978,7 +2097,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="1" t="s">
@@ -1988,7 +2108,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="1" t="s">
@@ -1998,7 +2119,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="1" t="s">
@@ -2008,7 +2130,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="1" t="s">
@@ -2018,7 +2141,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="1" t="s">
@@ -2028,7 +2152,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="1" t="s">
@@ -2038,7 +2163,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="1" t="s">
@@ -2048,7 +2174,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="1" t="s">
@@ -2058,7 +2185,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="1" t="s">
@@ -2068,7 +2196,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="1" t="s">
@@ -2078,7 +2207,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="1" t="s">
@@ -2088,15 +2218,20 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C91" s="1" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
       <c r="D92" s="1" t="s">
         <v>199</v>
       </c>
@@ -2105,24 +2240,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="A1:A92"/>
+    <mergeCell ref="B42:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B2:B37"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="C57:C69"/>
+    <mergeCell ref="C78:C90"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="C27:C37"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C43:C56"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="D61:D63"/>
     <mergeCell ref="D64:D66"/>
     <mergeCell ref="D67:D69"/>
     <mergeCell ref="D49:D52"/>
     <mergeCell ref="D53:D56"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="C27:C37"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C43:C56"/>
-    <mergeCell ref="B2:B37"/>
-    <mergeCell ref="B42:B90"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="C57:C69"/>
-    <mergeCell ref="C78:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
